--- a/Equipment_and_Metrology_Database.xlsx
+++ b/Equipment_and_Metrology_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d31bab4223d41d12/Desktop/Latitude Work Folder/Equipment and Metrology Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{999A0059-E710-4F1A-B0D9-0DD7BDFE7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31F72C0-0A4B-457C-9341-827CA3A23BBF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{999A0059-E710-4F1A-B0D9-0DD7BDFE7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E379F6B-D0D3-4278-B95C-EE135FB1A2A7}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{29ED6C3E-AE6D-483B-89E1-38F18DA3C654}"/>
   </bookViews>
@@ -2688,10 +2688,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2843,7 +2842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2852,9 +2851,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2874,18 +2870,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2910,9 +2894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2929,12 +2910,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2950,13 +2925,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2966,16 +2935,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2988,6 +2951,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3012,6 +3002,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3316,8 +3310,8 @@
   </sheetPr>
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3326,11 +3320,11 @@
     <col min="2" max="2" width="18.83984375" customWidth="1"/>
     <col min="3" max="4" width="34.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.41796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.41796875" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.578125" customWidth="1"/>
-    <col min="9" max="9" width="13.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83984375" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.578125" style="42" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="9.41796875" customWidth="1"/>
@@ -3339,488 +3333,488 @@
     <col min="16" max="16" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:17" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="40" t="s">
         <v>840</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="40" t="s">
         <v>841</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="14" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="28">
         <v>651</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="38">
+      <c r="H2" s="28"/>
+      <c r="I2" s="41">
         <v>45246</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="41">
         <v>45626</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="L2" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="36" t="s">
+      <c r="L2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="28">
         <v>651</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38">
+      <c r="H3" s="28"/>
+      <c r="I3" s="41">
         <v>45246</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="41">
         <v>45626</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="L3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="36" t="s">
+      <c r="L3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="28">
         <v>651</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="38">
+      <c r="H4" s="28"/>
+      <c r="I4" s="41">
         <v>45246</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="41">
         <v>45626</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="L4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="36" t="s">
+      <c r="L4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="28">
         <v>651</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38">
+      <c r="H5" s="28"/>
+      <c r="I5" s="41">
         <v>45246</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="41">
         <v>45626</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="L5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="36" t="s">
+      <c r="L5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="28">
         <v>651</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="38">
+      <c r="H6" s="28"/>
+      <c r="I6" s="41">
         <v>45246</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="41">
         <v>45626</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="L6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" s="36" t="s">
+      <c r="L6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="28">
         <v>651</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38">
+      <c r="H7" s="28"/>
+      <c r="I7" s="41">
         <v>45246</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="41">
         <v>45626</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="L7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="36" t="s">
+      <c r="L7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="28">
         <v>651</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="38">
+      <c r="H8" s="28"/>
+      <c r="I8" s="41">
         <v>45246</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="41">
         <v>45626</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="L8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="36" t="s">
+      <c r="L8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="28">
         <v>651</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="38">
+      <c r="H9" s="28"/>
+      <c r="I9" s="41">
         <v>45246</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="41">
         <v>45626</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="L9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="36" t="s">
+      <c r="L9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="28">
         <v>651</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="38">
+      <c r="H10" s="28"/>
+      <c r="I10" s="41">
         <v>45264</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="41">
         <v>45657</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="L10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="36" t="s">
+      <c r="L10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="28" t="s">
         <v>584</v>
       </c>
     </row>
@@ -3846,14 +3840,14 @@
       <c r="G11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="I11" s="42"/>
+      <c r="J11" s="42">
         <v>45282</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="5"/>
+      <c r="K11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3889,14 +3883,14 @@
       <c r="G12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="42">
         <v>45301</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="42">
         <v>46032</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
@@ -3908,7 +3902,7 @@
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3917,14 +3911,14 @@
       <c r="F13" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="13">
+      <c r="H13" s="5"/>
+      <c r="I13" s="43">
         <v>44648</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="43">
         <v>45013</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -3954,7 +3948,7 @@
       <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -3963,14 +3957,14 @@
       <c r="F14" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="13">
+      <c r="H14" s="5"/>
+      <c r="I14" s="43">
         <v>44649</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="43">
         <v>45014</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -4000,7 +3994,7 @@
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -4009,14 +4003,14 @@
       <c r="F15" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="13">
+      <c r="H15" s="5"/>
+      <c r="I15" s="43">
         <v>44650</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="43">
         <v>45015</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -4046,7 +4040,7 @@
       <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -4055,14 +4049,14 @@
       <c r="F16" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="13">
+      <c r="H16" s="5"/>
+      <c r="I16" s="43">
         <v>44651</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="43">
         <v>45016</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -4092,7 +4086,7 @@
       <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -4101,14 +4095,14 @@
       <c r="F17" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="13">
+      <c r="H17" s="5"/>
+      <c r="I17" s="43">
         <v>44652</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="43">
         <v>45017</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -4138,7 +4132,7 @@
       <c r="C18" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -4147,14 +4141,14 @@
       <c r="F18" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="13">
+      <c r="H18" s="5"/>
+      <c r="I18" s="43">
         <v>44653</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="43">
         <v>45018</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -4184,7 +4178,7 @@
       <c r="C19" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -4193,14 +4187,14 @@
       <c r="F19" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="13">
+      <c r="H19" s="5"/>
+      <c r="I19" s="43">
         <v>45246</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="43">
         <v>45626</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -4230,7 +4224,7 @@
       <c r="C20" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -4239,14 +4233,14 @@
       <c r="F20" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="13">
+      <c r="H20" s="5"/>
+      <c r="I20" s="43">
         <v>45187</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="43">
         <v>45565</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -4275,7 +4269,7 @@
       <c r="C21" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -4284,14 +4278,14 @@
       <c r="F21" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="13">
+      <c r="H21" s="5"/>
+      <c r="I21" s="43">
         <v>44656</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="43">
         <v>45021</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -4321,7 +4315,7 @@
       <c r="C22" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -4330,14 +4324,14 @@
       <c r="F22" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="13">
+      <c r="H22" s="5"/>
+      <c r="I22" s="43">
         <v>45187</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="43">
         <v>45565</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -4367,7 +4361,7 @@
       <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -4376,14 +4370,14 @@
       <c r="F23" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="13">
+      <c r="H23" s="5"/>
+      <c r="I23" s="43">
         <v>45120</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="43">
         <v>45486</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -4413,7 +4407,7 @@
       <c r="C24" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -4422,14 +4416,14 @@
       <c r="F24" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="13">
+      <c r="H24" s="5"/>
+      <c r="I24" s="43">
         <v>45107</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="43">
         <v>45473</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -4468,14 +4462,14 @@
       <c r="F25" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="4">
+      <c r="H25" s="5"/>
+      <c r="I25" s="42">
         <v>45149</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="42">
         <v>45880</v>
       </c>
       <c r="K25" s="1"/>
@@ -4494,10 +4488,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -4515,7 +4507,7 @@
       <c r="C27" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -4524,14 +4516,14 @@
       <c r="F27" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="4">
+      <c r="H27" s="5"/>
+      <c r="I27" s="42">
         <v>45229</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="42">
         <v>45960</v>
       </c>
       <c r="K27" s="1"/>
@@ -4551,7 +4543,7 @@
       <c r="C28" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E28" s="1">
@@ -4560,14 +4552,14 @@
       <c r="F28" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="4">
+      <c r="H28" s="5"/>
+      <c r="I28" s="42">
         <v>45117</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="42">
         <v>45848</v>
       </c>
       <c r="K28" s="1"/>
@@ -4587,7 +4579,7 @@
       <c r="C29" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E29" s="1">
@@ -4596,14 +4588,14 @@
       <c r="F29" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="4">
+      <c r="H29" s="5"/>
+      <c r="I29" s="42">
         <v>45149</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="42">
         <v>45880</v>
       </c>
       <c r="K29" s="1"/>
@@ -4623,7 +4615,7 @@
       <c r="C30" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="1">
@@ -4632,14 +4624,14 @@
       <c r="F30" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="4">
+      <c r="H30" s="5"/>
+      <c r="I30" s="42">
         <v>45149</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="42">
         <v>45880</v>
       </c>
       <c r="K30" s="1"/>
@@ -4659,7 +4651,7 @@
       <c r="C31" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="1">
@@ -4668,14 +4660,14 @@
       <c r="F31" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="4">
+      <c r="H31" s="5"/>
+      <c r="I31" s="42">
         <v>45117</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="42">
         <v>45848</v>
       </c>
       <c r="K31" s="1"/>
@@ -4685,49 +4677,49 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="20">
         <v>48600</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="31">
+      <c r="H32" s="19"/>
+      <c r="I32" s="44">
         <v>44469</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="44">
         <v>44834</v>
       </c>
-      <c r="K32" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="33"/>
-      <c r="M32" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="P32" s="25" t="s">
+      <c r="K32" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="25"/>
+      <c r="M32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4754,14 +4746,13 @@
         <v>107</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4">
+      <c r="J33" s="42">
         <v>44681</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="5"/>
+      <c r="K33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="1" t="s">
         <v>18</v>
       </c>
@@ -4775,47 +4766,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31">
+      <c r="H34" s="19"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44">
         <v>42534</v>
       </c>
-      <c r="K34" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="33"/>
-      <c r="M34" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O34" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="P34" s="25" t="s">
+      <c r="K34" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="25"/>
+      <c r="M34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4842,16 +4833,16 @@
         <v>381</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="4">
+      <c r="I35" s="42">
         <v>45246</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="42">
         <v>45612</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="5"/>
+      <c r="K35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="1" t="s">
         <v>18</v>
       </c>
@@ -4865,49 +4856,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="25" t="s">
+    <row r="36" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="23">
         <v>3462</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="20">
         <v>210578983</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="31">
+      <c r="H36" s="19"/>
+      <c r="I36" s="44">
         <v>44720</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="44">
         <v>45115</v>
       </c>
-      <c r="K36" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="P36" s="25" t="s">
+      <c r="K36" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="25"/>
+      <c r="M36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4934,16 +4925,16 @@
         <v>72</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="4">
+      <c r="I37" s="42">
         <v>44805</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="42">
         <v>45199</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="5"/>
+      <c r="K37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="1" t="s">
         <v>18</v>
       </c>
@@ -4958,53 +4949,53 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="32">
+      <c r="H38" s="19"/>
+      <c r="I38" s="44">
         <v>44704</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="44">
         <v>45283</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="L38" s="27"/>
-      <c r="M38" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O38" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="P38" s="29" t="s">
+      <c r="L38" s="21"/>
+      <c r="M38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Q38" s="27"/>
-    </row>
-    <row r="39" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>641</v>
       </c>
@@ -5027,16 +5018,16 @@
         <v>394</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="4">
+      <c r="I39" s="42">
         <v>45245</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="42">
         <v>45611</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="5"/>
+      <c r="K39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5074,13 +5065,13 @@
         <v>394</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="4">
+      <c r="I40" s="42">
         <v>45288</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="42">
         <v>45654</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L40" s="1"/>
@@ -5112,13 +5103,13 @@
         <v>394</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="4">
+      <c r="I41" s="42">
         <v>45323</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="42">
         <v>45689</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L41" s="1"/>
@@ -5137,10 +5128,10 @@
       <c r="C42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -5150,16 +5141,16 @@
         <v>35</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="4">
+      <c r="I42" s="42">
         <v>44608</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="42">
         <v>44973</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="5"/>
+      <c r="K42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="1" t="s">
         <v>18</v>
       </c>
@@ -5183,10 +5174,10 @@
       <c r="C43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -5196,16 +5187,16 @@
         <v>39</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="4">
+      <c r="I43" s="42">
         <v>44608</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="42">
         <v>44973</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="5"/>
+      <c r="K43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="1" t="s">
         <v>18</v>
       </c>
@@ -5244,10 +5235,8 @@
       <c r="H44" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -5263,10 +5252,10 @@
       <c r="C45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -5276,16 +5265,16 @@
         <v>642</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="4">
+      <c r="I45" s="42">
         <v>45246</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="42">
         <v>45612</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="5"/>
+      <c r="K45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="1" t="s">
         <v>18</v>
       </c>
@@ -5309,10 +5298,10 @@
       <c r="C46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>392</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -5322,16 +5311,16 @@
         <v>642</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="4">
+      <c r="I46" s="42">
         <v>45323</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="42">
         <v>45689</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" s="5"/>
+      <c r="K46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="1" t="s">
         <v>18</v>
       </c>
@@ -5368,16 +5357,16 @@
         <v>76</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="4">
+      <c r="I47" s="42">
         <v>45009</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="42">
         <v>45382</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="5"/>
+      <c r="K47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="1" t="s">
         <v>18</v>
       </c>
@@ -5414,10 +5403,8 @@
         <v>669</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="1" t="s">
         <v>18</v>
       </c>
@@ -5446,10 +5433,8 @@
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -5478,10 +5463,10 @@
         <v>458</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="14">
+      <c r="I50" s="42">
         <v>44978</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="42">
         <v>45343</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -5524,16 +5509,16 @@
         <v>78</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="4">
+      <c r="I51" s="42">
         <v>45009</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="42">
         <v>45382</v>
       </c>
-      <c r="K51" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="5"/>
+      <c r="K51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="1" t="s">
         <v>18</v>
       </c>
@@ -5570,10 +5555,10 @@
         <v>501</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="14">
+      <c r="I52" s="42">
         <v>45327</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="42">
         <v>45693</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -5616,10 +5601,10 @@
         <v>560</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="5">
+      <c r="I53" s="42">
         <v>45140</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="42">
         <v>45535</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -5662,10 +5647,10 @@
         <v>430</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="4">
+      <c r="I54" s="42">
         <v>45125</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="42">
         <v>45504</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -5708,10 +5693,10 @@
         <v>517</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="1" t="s">
+      <c r="I55" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -5737,7 +5722,7 @@
       <c r="A56" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>472</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -5746,20 +5731,20 @@
       <c r="D56" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="16" t="s">
         <v>471</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>473</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" s="2" t="s">
+      <c r="I56" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="45" t="s">
         <v>18</v>
       </c>
       <c r="K56" s="2" t="s">
@@ -5785,7 +5770,7 @@
       <c r="A57" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>491</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -5802,10 +5787,10 @@
         <v>494</v>
       </c>
       <c r="H57" s="2"/>
-      <c r="I57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="2" t="s">
+      <c r="I57" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="45" t="s">
         <v>18</v>
       </c>
       <c r="K57" s="2" t="s">
@@ -5831,7 +5816,7 @@
       <c r="A58" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>492</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -5848,10 +5833,10 @@
         <v>495</v>
       </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="2" t="s">
+      <c r="I58" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="45" t="s">
         <v>18</v>
       </c>
       <c r="K58" s="2" t="s">
@@ -5892,14 +5877,14 @@
       <c r="F59" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="1" t="s">
+      <c r="H59" s="8"/>
+      <c r="I59" s="42" t="s">
         <v>544</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="42" t="s">
         <v>544</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -5944,10 +5929,10 @@
         <v>188</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="1" t="s">
+      <c r="I60" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -5976,26 +5961,26 @@
       <c r="B61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>532</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="2" t="s">
+      <c r="H61" s="5"/>
+      <c r="I61" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="45" t="s">
         <v>18</v>
       </c>
       <c r="K61" s="2" t="s">
@@ -6042,10 +6027,10 @@
       <c r="H62" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="42">
         <v>45322</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="42">
         <v>45688</v>
       </c>
       <c r="K62" s="1"/>
@@ -6064,39 +6049,39 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H63" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="27"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="21"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
@@ -6121,10 +6106,10 @@
         <v>510</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J64" s="1" t="s">
+      <c r="I64" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -6169,10 +6154,10 @@
         <v>478</v>
       </c>
       <c r="H65" s="1"/>
-      <c r="I65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="1" t="s">
+      <c r="I65" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -6217,10 +6202,10 @@
         <v>483</v>
       </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="1" t="s">
+      <c r="I66" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K66" s="1" t="s">
@@ -6265,10 +6250,10 @@
         <v>485</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="1" t="s">
+      <c r="I67" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -6313,10 +6298,10 @@
         <v>486</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J68" s="1" t="s">
+      <c r="I68" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K68" s="1" t="s">
@@ -6421,10 +6406,10 @@
         <v>548</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="14">
+      <c r="I71" s="42">
         <v>45006</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="42">
         <v>45382</v>
       </c>
       <c r="K71" s="1" t="s">
@@ -6469,16 +6454,16 @@
         <v>375</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="4">
+      <c r="I72" s="42">
         <v>45085</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="42">
         <v>45451</v>
       </c>
-      <c r="K72" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L72" s="5"/>
+      <c r="K72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="1" t="s">
         <v>18</v>
       </c>
@@ -6515,16 +6500,16 @@
         <v>35</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="4">
+      <c r="I73" s="42">
         <v>44608</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J73" s="42">
         <v>44681</v>
       </c>
-      <c r="K73" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L73" s="5"/>
+      <c r="K73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="1" t="s">
         <v>18</v>
       </c>
@@ -6561,10 +6546,10 @@
         <v>464</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="14">
+      <c r="I74" s="42">
         <v>45100</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="42">
         <v>45466</v>
       </c>
       <c r="K74" s="1" t="s">
@@ -6607,10 +6592,10 @@
         <v>464</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="24">
+      <c r="I75" s="42">
         <v>45296</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="42">
         <v>45662</v>
       </c>
       <c r="K75" s="1"/>
@@ -6643,16 +6628,16 @@
         <v>465</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="4">
+      <c r="I76" s="42">
         <v>45091</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="42">
         <v>45473</v>
       </c>
-      <c r="K76" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L76" s="5"/>
+      <c r="K76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="1" t="s">
         <v>18</v>
       </c>
@@ -6689,10 +6674,10 @@
         <v>465</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="4">
+      <c r="I77" s="42">
         <v>45245</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="42">
         <v>45611</v>
       </c>
       <c r="K77" s="1" t="s">
@@ -6735,10 +6720,10 @@
         <v>465</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="4">
+      <c r="I78" s="42">
         <v>45279</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="42">
         <v>45645</v>
       </c>
       <c r="K78" s="1" t="s">
@@ -6781,16 +6766,16 @@
         <v>24</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="42">
         <v>44713</v>
       </c>
-      <c r="K79" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L79" s="5"/>
+      <c r="K79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="1" t="s">
         <v>18</v>
       </c>
@@ -6824,16 +6809,16 @@
         <v>46</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="4">
+      <c r="I80" s="42">
         <v>44608</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="42">
         <v>44973</v>
       </c>
-      <c r="K80" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L80" s="5"/>
+      <c r="K80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="1" t="s">
         <v>18</v>
       </c>
@@ -6870,16 +6855,16 @@
         <v>643</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="4">
+      <c r="I81" s="42">
         <v>45245</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="42">
         <v>45611</v>
       </c>
-      <c r="K81" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L81" s="5"/>
+      <c r="K81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="1" t="s">
         <v>18</v>
       </c>
@@ -6916,16 +6901,16 @@
         <v>643</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="4">
+      <c r="I82" s="42">
         <v>45245</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="42">
         <v>45611</v>
       </c>
-      <c r="K82" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L82" s="5"/>
+      <c r="K82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="1" t="s">
         <v>18</v>
       </c>
@@ -6938,7 +6923,7 @@
       <c r="P82" s="1"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -6947,23 +6932,23 @@
       <c r="C83" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="15">
         <v>9911707</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J83" s="4" t="s">
+      <c r="I83" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K83" s="1" t="s">
@@ -6982,8 +6967,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -6992,23 +6977,23 @@
       <c r="C84" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="15">
         <v>9911912</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J84" s="4" t="s">
+      <c r="I84" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K84" s="1" t="s">
@@ -7030,7 +7015,7 @@
       <c r="Q84"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -7039,7 +7024,7 @@
       <c r="C85" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -7052,10 +7037,10 @@
         <v>114</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="4">
+      <c r="I85" s="42">
         <v>44895</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="42">
         <v>45260</v>
       </c>
       <c r="K85" s="1" t="s">
@@ -7078,40 +7063,40 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="23" t="s">
         <v>674</v>
       </c>
-      <c r="F86" s="26" t="s">
+      <c r="F86" s="20" t="s">
         <v>675</v>
       </c>
-      <c r="G86" s="25" t="s">
+      <c r="G86" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="H86" s="25"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="27"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="21"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>673</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -7120,7 +7105,7 @@
       <c r="C87" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -7133,8 +7118,6 @@
         <v>114</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -7143,7 +7126,7 @@
       <c r="P87" s="1"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>729</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -7152,7 +7135,7 @@
       <c r="C88" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -7167,10 +7150,10 @@
       <c r="H88" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="42">
         <v>45289</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="42">
         <v>45657</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -7191,7 +7174,7 @@
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="6" t="s">
         <v>782</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -7200,7 +7183,7 @@
       <c r="C89" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -7215,10 +7198,10 @@
       <c r="H89" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="42">
         <v>45334</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="42">
         <v>45700</v>
       </c>
       <c r="K89" s="1"/>
@@ -7229,7 +7212,7 @@
       <c r="P89" s="1"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="6" t="s">
         <v>813</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -7238,7 +7221,7 @@
       <c r="C90" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -7253,8 +7236,6 @@
       <c r="H90" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -7263,7 +7244,7 @@
       <c r="P90" s="1"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>826</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -7272,7 +7253,7 @@
       <c r="C91" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>677</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -7287,8 +7268,6 @@
       <c r="H91" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -7297,7 +7276,7 @@
       <c r="P91" s="1"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>838</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -7306,7 +7285,7 @@
       <c r="C92" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>702</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -7321,8 +7300,6 @@
       <c r="H92" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -7353,10 +7330,10 @@
         <v>435</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="I93" s="4">
+      <c r="I93" s="42">
         <v>44642</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="42">
         <v>45007</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -7397,8 +7374,6 @@
         <v>825</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -7407,7 +7382,7 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -7416,21 +7391,19 @@
       <c r="C95" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F95" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" s="9" t="s">
+      <c r="F95" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
+      <c r="H95" s="8"/>
       <c r="K95" s="1" t="s">
         <v>25</v>
       </c>
@@ -7448,7 +7421,7 @@
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>271</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -7457,21 +7430,19 @@
       <c r="C96" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="F96" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
+      <c r="H96" s="8"/>
       <c r="K96" s="1" t="s">
         <v>25</v>
       </c>
@@ -7504,24 +7475,24 @@
       <c r="E97" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F97" s="16" t="s">
         <v>722</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I97" s="42">
         <v>45299</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="42">
         <v>45688</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>327</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -7530,7 +7501,7 @@
       <c r="C98" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>329</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -7543,10 +7514,10 @@
         <v>332</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="4">
+      <c r="I98" s="42">
         <v>44462</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="42">
         <v>44827</v>
       </c>
       <c r="K98" s="1" t="s">
@@ -7566,7 +7537,7 @@
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -7575,7 +7546,7 @@
       <c r="C99" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="6" t="s">
         <v>321</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -7588,10 +7559,10 @@
         <v>324</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J99" s="4" t="s">
+      <c r="I99" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K99" s="1" t="s">
@@ -7611,7 +7582,7 @@
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>313</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -7620,7 +7591,7 @@
       <c r="C100" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -7633,10 +7604,10 @@
         <v>316</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="4">
+      <c r="I100" s="42">
         <v>44377</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100" s="42">
         <v>45105</v>
       </c>
       <c r="K100" s="1" t="s">
@@ -7681,10 +7652,10 @@
         <v>708</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="14">
+      <c r="I101" s="42">
         <v>45299</v>
       </c>
-      <c r="J101" s="14">
+      <c r="J101" s="42">
         <v>45688</v>
       </c>
       <c r="K101" s="1" t="s">
@@ -7703,7 +7674,7 @@
       <c r="P101" s="1"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="6" t="s">
         <v>762</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -7712,7 +7683,7 @@
       <c r="C102" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>764</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -7725,10 +7696,10 @@
         <v>763</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="4" t="s">
+      <c r="I102" s="42" t="s">
         <v>544</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J102" s="42" t="s">
         <v>544</v>
       </c>
       <c r="K102" s="1"/>
@@ -7748,7 +7719,7 @@
       <c r="C103" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="5" t="s">
         <v>384</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -7757,14 +7728,14 @@
       <c r="F103" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="G103" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="H103" s="6"/>
-      <c r="I103" s="14">
+      <c r="H103" s="5"/>
+      <c r="I103" s="42">
         <v>44686</v>
       </c>
-      <c r="J103" s="14">
+      <c r="J103" s="42">
         <v>45051</v>
       </c>
       <c r="K103" s="1" t="s">
@@ -7785,7 +7756,7 @@
       <c r="P103" s="2"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -7794,23 +7765,23 @@
       <c r="C104" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="F104" s="15" t="s">
         <v>255</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H104" s="1"/>
-      <c r="I104" s="4">
+      <c r="I104" s="42">
         <v>45365</v>
       </c>
-      <c r="J104" s="4">
+      <c r="J104" s="42">
         <v>45730</v>
       </c>
       <c r="K104" s="1" t="s">
@@ -7830,7 +7801,7 @@
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -7839,23 +7810,23 @@
       <c r="C105" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F105" s="15" t="s">
         <v>259</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H105" s="1"/>
-      <c r="I105" s="4">
+      <c r="I105" s="42">
         <v>45365</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J105" s="42">
         <v>45730</v>
       </c>
       <c r="K105" s="1" t="s">
@@ -7875,7 +7846,7 @@
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -7884,23 +7855,23 @@
       <c r="C106" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F106" s="20" t="s">
+      <c r="F106" s="15" t="s">
         <v>261</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H106" s="1"/>
-      <c r="I106" s="4">
+      <c r="I106" s="42">
         <v>45365</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J106" s="42">
         <v>45730</v>
       </c>
       <c r="K106" s="1" t="s">
@@ -7920,7 +7891,7 @@
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -7929,23 +7900,23 @@
       <c r="C107" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F107" s="15" t="s">
         <v>263</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H107" s="1"/>
-      <c r="I107" s="4">
+      <c r="I107" s="42">
         <v>45365</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J107" s="42">
         <v>45730</v>
       </c>
       <c r="K107" s="1" t="s">
@@ -7965,7 +7936,7 @@
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -7974,7 +7945,7 @@
       <c r="C108" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -7987,10 +7958,10 @@
         <v>221</v>
       </c>
       <c r="H108" s="1"/>
-      <c r="I108" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J108" s="4" t="s">
+      <c r="I108" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K108" s="1" t="s">
@@ -8010,7 +7981,7 @@
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -8019,26 +7990,26 @@
       <c r="C109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F109" s="21" t="s">
+      <c r="F109" s="16" t="s">
         <v>133</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H109" s="1"/>
-      <c r="I109" s="4">
+      <c r="I109" s="42">
         <v>44551</v>
       </c>
-      <c r="J109" s="4">
+      <c r="J109" s="42">
         <v>44916</v>
       </c>
-      <c r="K109" s="5" t="s">
+      <c r="K109" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L109" s="1" t="s">
@@ -8058,7 +8029,7 @@
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -8067,26 +8038,26 @@
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="F110" s="16" t="s">
         <v>136</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H110" s="1"/>
-      <c r="I110" s="4">
+      <c r="I110" s="42">
         <v>44551</v>
       </c>
-      <c r="J110" s="4">
+      <c r="J110" s="42">
         <v>44916</v>
       </c>
-      <c r="K110" s="5" t="s">
+      <c r="K110" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L110" s="1" t="s">
@@ -8105,8 +8076,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="8" t="s">
+    <row r="111" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -8115,26 +8086,26 @@
       <c r="C111" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F111" s="21" t="s">
+      <c r="F111" s="16" t="s">
         <v>138</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H111" s="1"/>
-      <c r="I111" s="4">
+      <c r="I111" s="42">
         <v>44551</v>
       </c>
-      <c r="J111" s="4">
+      <c r="J111" s="42">
         <v>44916</v>
       </c>
-      <c r="K111" s="5" t="s">
+      <c r="K111" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L111" s="1" t="s">
@@ -8155,7 +8126,7 @@
       <c r="Q111"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -8164,26 +8135,26 @@
       <c r="C112" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F112" s="21" t="s">
+      <c r="F112" s="16" t="s">
         <v>141</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H112" s="1"/>
-      <c r="I112" s="4">
+      <c r="I112" s="42">
         <v>44551</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112" s="42">
         <v>44916</v>
       </c>
-      <c r="K112" s="5" t="s">
+      <c r="K112" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L112" s="1" t="s">
@@ -8203,7 +8174,7 @@
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -8212,26 +8183,26 @@
       <c r="C113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F113" s="21" t="s">
+      <c r="F113" s="16" t="s">
         <v>143</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H113" s="1"/>
-      <c r="I113" s="4">
+      <c r="I113" s="42">
         <v>44551</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="42">
         <v>44916</v>
       </c>
-      <c r="K113" s="5" t="s">
+      <c r="K113" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L113" s="1" t="s">
@@ -8251,7 +8222,7 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -8260,26 +8231,26 @@
       <c r="C114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F114" s="21" t="s">
+      <c r="F114" s="16" t="s">
         <v>145</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H114" s="1"/>
-      <c r="I114" s="4">
+      <c r="I114" s="42">
         <v>44551</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114" s="42">
         <v>44916</v>
       </c>
-      <c r="K114" s="5" t="s">
+      <c r="K114" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L114" s="1" t="s">
@@ -8299,7 +8270,7 @@
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -8308,26 +8279,26 @@
       <c r="C115" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F115" s="21" t="s">
+      <c r="F115" s="16" t="s">
         <v>148</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H115" s="1"/>
-      <c r="I115" s="4">
+      <c r="I115" s="42">
         <v>44669</v>
       </c>
-      <c r="J115" s="14">
+      <c r="J115" s="42">
         <v>45034</v>
       </c>
-      <c r="K115" s="5" t="s">
+      <c r="K115" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L115" s="1" t="s">
@@ -8347,7 +8318,7 @@
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -8356,26 +8327,26 @@
       <c r="C116" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F116" s="21" t="s">
+      <c r="F116" s="16" t="s">
         <v>151</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H116" s="1"/>
-      <c r="I116" s="4">
+      <c r="I116" s="42">
         <v>44669</v>
       </c>
-      <c r="J116" s="14">
+      <c r="J116" s="42">
         <v>45034</v>
       </c>
-      <c r="K116" s="5" t="s">
+      <c r="K116" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L116" s="1" t="s">
@@ -8395,7 +8366,7 @@
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -8404,26 +8375,26 @@
       <c r="C117" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F117" s="16" t="s">
         <v>154</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H117" s="1"/>
-      <c r="I117" s="4">
+      <c r="I117" s="42">
         <v>44669</v>
       </c>
-      <c r="J117" s="14">
+      <c r="J117" s="42">
         <v>45034</v>
       </c>
-      <c r="K117" s="5" t="s">
+      <c r="K117" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L117" s="1" t="s">
@@ -8443,7 +8414,7 @@
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -8452,26 +8423,26 @@
       <c r="C118" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="F118" s="16" t="s">
         <v>156</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H118" s="1"/>
-      <c r="I118" s="4">
+      <c r="I118" s="42">
         <v>44669</v>
       </c>
-      <c r="J118" s="14">
+      <c r="J118" s="42">
         <v>45034</v>
       </c>
-      <c r="K118" s="5" t="s">
+      <c r="K118" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L118" s="1" t="s">
@@ -8491,7 +8462,7 @@
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -8500,26 +8471,26 @@
       <c r="C119" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F119" s="21" t="s">
+      <c r="F119" s="16" t="s">
         <v>158</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H119" s="1"/>
-      <c r="I119" s="4">
+      <c r="I119" s="42">
         <v>44669</v>
       </c>
-      <c r="J119" s="14">
+      <c r="J119" s="42">
         <v>45034</v>
       </c>
-      <c r="K119" s="5" t="s">
+      <c r="K119" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L119" s="1" t="s">
@@ -8539,7 +8510,7 @@
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -8548,26 +8519,26 @@
       <c r="C120" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="16" t="s">
         <v>159</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H120" s="1"/>
-      <c r="I120" s="4">
+      <c r="I120" s="42">
         <v>44669</v>
       </c>
-      <c r="J120" s="14">
+      <c r="J120" s="42">
         <v>45034</v>
       </c>
-      <c r="K120" s="5" t="s">
+      <c r="K120" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L120" s="1" t="s">
@@ -8587,7 +8558,7 @@
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -8596,26 +8567,26 @@
       <c r="C121" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F121" s="21" t="s">
+      <c r="F121" s="16" t="s">
         <v>162</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H121" s="1"/>
-      <c r="I121" s="4">
+      <c r="I121" s="42">
         <v>44669</v>
       </c>
-      <c r="J121" s="14">
+      <c r="J121" s="42">
         <v>45034</v>
       </c>
-      <c r="K121" s="5" t="s">
+      <c r="K121" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L121" s="1" t="s">
@@ -8635,7 +8606,7 @@
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -8644,26 +8615,26 @@
       <c r="C122" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="15" t="s">
         <v>165</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H122" s="1"/>
-      <c r="I122" s="4">
+      <c r="I122" s="42">
         <v>44669</v>
       </c>
-      <c r="J122" s="14">
+      <c r="J122" s="42">
         <v>45034</v>
       </c>
-      <c r="K122" s="5" t="s">
+      <c r="K122" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L122" s="1" t="s">
@@ -8683,7 +8654,7 @@
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -8692,10 +8663,10 @@
       <c r="C123" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="5" t="s">
         <v>413</v>
       </c>
       <c r="F123" s="3" t="s">
@@ -8705,10 +8676,10 @@
         <v>119</v>
       </c>
       <c r="H123" s="1"/>
-      <c r="I123" s="4">
+      <c r="I123" s="42">
         <v>44785</v>
       </c>
-      <c r="J123" s="4">
+      <c r="J123" s="42">
         <v>45150</v>
       </c>
       <c r="K123" s="1" t="s">
@@ -8731,7 +8702,7 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -8740,10 +8711,10 @@
       <c r="C124" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="5" t="s">
         <v>117</v>
       </c>
       <c r="F124" s="3" t="s">
@@ -8753,10 +8724,10 @@
         <v>119</v>
       </c>
       <c r="H124" s="1"/>
-      <c r="I124" s="4">
+      <c r="I124" s="42">
         <v>44785</v>
       </c>
-      <c r="J124" s="4">
+      <c r="J124" s="42">
         <v>45150</v>
       </c>
       <c r="K124" s="1" t="s">
@@ -8779,7 +8750,7 @@
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -8788,7 +8759,7 @@
       <c r="C125" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="5" t="s">
         <v>446</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -8801,10 +8772,10 @@
         <v>119</v>
       </c>
       <c r="H125" s="1"/>
-      <c r="I125" s="4">
+      <c r="I125" s="42">
         <v>44785</v>
       </c>
-      <c r="J125" s="4">
+      <c r="J125" s="42">
         <v>45150</v>
       </c>
       <c r="K125" s="1" t="s">
@@ -8827,7 +8798,7 @@
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -8836,7 +8807,7 @@
       <c r="C126" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="5" t="s">
         <v>447</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -8849,10 +8820,10 @@
         <v>119</v>
       </c>
       <c r="H126" s="1"/>
-      <c r="I126" s="4">
+      <c r="I126" s="42">
         <v>44785</v>
       </c>
-      <c r="J126" s="4">
+      <c r="J126" s="42">
         <v>45150</v>
       </c>
       <c r="K126" s="1" t="s">
@@ -8875,7 +8846,7 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -8884,7 +8855,7 @@
       <c r="C127" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -8897,10 +8868,10 @@
         <v>119</v>
       </c>
       <c r="H127" s="1"/>
-      <c r="I127" s="4">
+      <c r="I127" s="42">
         <v>44785</v>
       </c>
-      <c r="J127" s="4">
+      <c r="J127" s="42">
         <v>45150</v>
       </c>
       <c r="K127" s="1" t="s">
@@ -8923,7 +8894,7 @@
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -8932,7 +8903,7 @@
       <c r="C128" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="5" t="s">
         <v>127</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -8945,10 +8916,10 @@
         <v>119</v>
       </c>
       <c r="H128" s="1"/>
-      <c r="I128" s="4">
+      <c r="I128" s="42">
         <v>44785</v>
       </c>
-      <c r="J128" s="4">
+      <c r="J128" s="42">
         <v>45150</v>
       </c>
       <c r="K128" s="1" t="s">
@@ -8971,285 +8942,285 @@
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="B129" s="35" t="s">
+      <c r="B129" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D129" s="36" t="s">
+      <c r="D129" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E129" s="36" t="s">
+      <c r="E129" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="F129" s="37" t="s">
+      <c r="F129" s="29" t="s">
         <v>751</v>
       </c>
-      <c r="G129" s="36" t="s">
+      <c r="G129" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H129" s="36"/>
-      <c r="I129" s="38">
+      <c r="H129" s="28"/>
+      <c r="I129" s="41">
         <v>45315</v>
       </c>
-      <c r="J129" s="38">
+      <c r="J129" s="41">
         <v>45681</v>
       </c>
-      <c r="K129" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L129" s="36" t="s">
+      <c r="K129" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L129" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M129" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N129" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O129" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P129" s="35" t="s">
+      <c r="M129" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N129" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O129" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P129" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="Q129" s="39"/>
-    </row>
-    <row r="130" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="34" t="s">
+      <c r="Q129" s="30"/>
+    </row>
+    <row r="130" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="35" t="s">
+      <c r="C130" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D130" s="36" t="s">
+      <c r="D130" s="28" t="s">
         <v>750</v>
       </c>
-      <c r="E130" s="36" t="s">
+      <c r="E130" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F130" s="37" t="s">
+      <c r="F130" s="29" t="s">
         <v>752</v>
       </c>
-      <c r="G130" s="36" t="s">
+      <c r="G130" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H130" s="36"/>
-      <c r="I130" s="38">
+      <c r="H130" s="28"/>
+      <c r="I130" s="41">
         <v>45315</v>
       </c>
-      <c r="J130" s="38">
+      <c r="J130" s="41">
         <v>45681</v>
       </c>
-      <c r="K130" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L130" s="36" t="s">
+      <c r="K130" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L130" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M130" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N130" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O130" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P130" s="35"/>
-    </row>
-    <row r="131" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="34" t="s">
+      <c r="M130" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N130" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O130" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P130" s="27"/>
+    </row>
+    <row r="131" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="36" t="s">
+      <c r="D131" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E131" s="36" t="s">
+      <c r="E131" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F131" s="37" t="s">
+      <c r="F131" s="29" t="s">
         <v>753</v>
       </c>
-      <c r="G131" s="36" t="s">
+      <c r="G131" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H131" s="36"/>
-      <c r="I131" s="38">
+      <c r="H131" s="28"/>
+      <c r="I131" s="41">
         <v>45315</v>
       </c>
-      <c r="J131" s="38">
+      <c r="J131" s="41">
         <v>45681</v>
       </c>
-      <c r="K131" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L131" s="36" t="s">
+      <c r="K131" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L131" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M131" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N131" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O131" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P131" s="35"/>
-    </row>
-    <row r="132" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="34" t="s">
+      <c r="M131" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N131" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O131" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P131" s="27"/>
+    </row>
+    <row r="132" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="B132" s="35" t="s">
+      <c r="B132" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="35" t="s">
+      <c r="C132" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D132" s="36" t="s">
+      <c r="D132" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E132" s="36" t="s">
+      <c r="E132" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F132" s="37" t="s">
+      <c r="F132" s="29" t="s">
         <v>754</v>
       </c>
-      <c r="G132" s="36" t="s">
+      <c r="G132" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H132" s="36"/>
-      <c r="I132" s="38">
+      <c r="H132" s="28"/>
+      <c r="I132" s="41">
         <v>45315</v>
       </c>
-      <c r="J132" s="38">
+      <c r="J132" s="41">
         <v>45681</v>
       </c>
-      <c r="K132" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L132" s="36" t="s">
+      <c r="K132" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L132" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M132" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N132" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O132" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P132" s="35"/>
-    </row>
-    <row r="133" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="34" t="s">
+      <c r="M132" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N132" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O132" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P132" s="27"/>
+    </row>
+    <row r="133" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D133" s="36" t="s">
+      <c r="D133" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E133" s="36" t="s">
+      <c r="E133" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F133" s="37" t="s">
+      <c r="F133" s="29" t="s">
         <v>755</v>
       </c>
-      <c r="G133" s="36" t="s">
+      <c r="G133" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H133" s="36"/>
-      <c r="I133" s="38">
+      <c r="H133" s="28"/>
+      <c r="I133" s="41">
         <v>45315</v>
       </c>
-      <c r="J133" s="38">
+      <c r="J133" s="41">
         <v>45681</v>
       </c>
-      <c r="K133" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L133" s="36" t="s">
+      <c r="K133" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L133" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M133" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N133" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O133" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P133" s="35"/>
-    </row>
-    <row r="134" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="34" t="s">
+      <c r="M133" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N133" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O133" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P133" s="27"/>
+    </row>
+    <row r="134" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B134" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D134" s="36" t="s">
+      <c r="D134" s="28" t="s">
         <v>756</v>
       </c>
-      <c r="E134" s="36" t="s">
+      <c r="E134" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F134" s="37" t="s">
+      <c r="F134" s="29" t="s">
         <v>757</v>
       </c>
-      <c r="G134" s="36" t="s">
+      <c r="G134" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H134" s="36"/>
-      <c r="I134" s="38">
+      <c r="H134" s="28"/>
+      <c r="I134" s="41">
         <v>45315</v>
       </c>
-      <c r="J134" s="38">
+      <c r="J134" s="41">
         <v>45681</v>
       </c>
-      <c r="K134" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L134" s="36" t="s">
+      <c r="K134" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L134" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M134" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N134" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O134" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P134" s="35"/>
-    </row>
-    <row r="135" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M134" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N134" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O134" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P134" s="27"/>
+    </row>
+    <row r="135" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>769</v>
       </c>
@@ -9266,10 +9237,10 @@
       <c r="F135" s="3"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="42"/>
       <c r="K135" s="1"/>
-      <c r="L135" s="5"/>
+      <c r="L135" s="4"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -9277,7 +9248,7 @@
       <c r="Q135"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -9286,23 +9257,23 @@
       <c r="C136" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F136" s="20">
+      <c r="F136" s="15">
         <v>5126206996</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>214</v>
       </c>
       <c r="H136" s="1"/>
-      <c r="I136" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J136" s="4" t="s">
+      <c r="I136" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K136" s="1" t="s">
@@ -9322,7 +9293,7 @@
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -9331,23 +9302,23 @@
       <c r="C137" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F137" s="22">
+      <c r="F137" s="17">
         <v>1126250582</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>214</v>
       </c>
       <c r="H137" s="1"/>
-      <c r="I137" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J137" s="4" t="s">
+      <c r="I137" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K137" s="1" t="s">
@@ -9367,7 +9338,7 @@
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -9376,23 +9347,23 @@
       <c r="C138" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F138" s="22">
+      <c r="F138" s="17">
         <v>5127433970</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>214</v>
       </c>
       <c r="H138" s="1"/>
-      <c r="I138" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J138" s="4" t="s">
+      <c r="I138" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K138" s="1" t="s">
@@ -9434,10 +9405,10 @@
         <v>214</v>
       </c>
       <c r="H139" s="1"/>
-      <c r="I139" s="14">
+      <c r="I139" s="42">
         <v>44964</v>
       </c>
-      <c r="J139" s="14">
+      <c r="J139" s="42">
         <v>44965</v>
       </c>
       <c r="K139" s="1" t="s">
@@ -9460,7 +9431,7 @@
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -9469,7 +9440,7 @@
       <c r="C140" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="5" t="s">
         <v>199</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -9482,10 +9453,10 @@
         <v>202</v>
       </c>
       <c r="H140" s="1"/>
-      <c r="I140" s="4">
+      <c r="I140" s="42">
         <v>44860</v>
       </c>
-      <c r="J140" s="4">
+      <c r="J140" s="42">
         <v>45225</v>
       </c>
       <c r="K140" s="1" t="s">
@@ -9508,7 +9479,7 @@
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -9517,7 +9488,7 @@
       <c r="C141" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="5" t="s">
         <v>235</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -9530,10 +9501,10 @@
         <v>244</v>
       </c>
       <c r="H141" s="1"/>
-      <c r="I141" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J141" s="4" t="s">
+      <c r="I141" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J141" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K141" s="1" t="s">
@@ -9553,7 +9524,7 @@
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -9562,7 +9533,7 @@
       <c r="C142" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="5" t="s">
         <v>248</v>
       </c>
       <c r="E142" s="2">
@@ -9575,10 +9546,10 @@
         <v>247</v>
       </c>
       <c r="H142" s="1"/>
-      <c r="I142" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J142" s="4" t="s">
+      <c r="I142" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J142" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K142" s="1" t="s">
@@ -9598,7 +9569,7 @@
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="6" t="s">
         <v>280</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -9607,29 +9578,29 @@
       <c r="C143" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E143" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F143" s="22" t="s">
+      <c r="F143" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="G143" s="10" t="s">
+      <c r="G143" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="H143" s="10"/>
-      <c r="I143" s="11">
+      <c r="H143" s="9"/>
+      <c r="I143" s="46">
         <v>45098</v>
       </c>
-      <c r="J143" s="11">
+      <c r="J143" s="46">
         <v>45464</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L143" s="7" t="s">
+      <c r="L143" s="6" t="s">
         <v>286</v>
       </c>
       <c r="M143" s="1" t="s">
@@ -9643,7 +9614,7 @@
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -9652,29 +9623,29 @@
       <c r="C144" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F144" s="22" t="s">
+      <c r="F144" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="G144" s="10" t="s">
+      <c r="G144" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="H144" s="10"/>
-      <c r="I144" s="11">
+      <c r="H144" s="9"/>
+      <c r="I144" s="46">
         <v>45098</v>
       </c>
-      <c r="J144" s="11">
+      <c r="J144" s="46">
         <v>45464</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L144" s="7" t="s">
+      <c r="L144" s="6" t="s">
         <v>286</v>
       </c>
       <c r="M144" s="1" t="s">
@@ -9688,7 +9659,7 @@
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="6" t="s">
         <v>289</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -9697,29 +9668,29 @@
       <c r="C145" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E145" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F145" s="22" t="s">
+      <c r="F145" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="G145" s="10" t="s">
+      <c r="G145" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="H145" s="10"/>
-      <c r="I145" s="11">
+      <c r="H145" s="9"/>
+      <c r="I145" s="46">
         <v>45072</v>
       </c>
-      <c r="J145" s="11">
+      <c r="J145" s="46">
         <v>45438</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L145" s="7" t="s">
+      <c r="L145" s="6" t="s">
         <v>286</v>
       </c>
       <c r="M145" s="1" t="s">
@@ -9733,7 +9704,7 @@
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="6" t="s">
         <v>293</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -9742,29 +9713,29 @@
       <c r="C146" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F146" s="22" t="s">
+      <c r="F146" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="G146" s="10" t="s">
+      <c r="G146" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="H146" s="10"/>
-      <c r="I146" s="11">
+      <c r="H146" s="9"/>
+      <c r="I146" s="46">
         <v>45098</v>
       </c>
-      <c r="J146" s="11">
+      <c r="J146" s="46">
         <v>45464</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L146" s="7" t="s">
+      <c r="L146" s="6" t="s">
         <v>286</v>
       </c>
       <c r="M146" s="1" t="s">
@@ -9778,7 +9749,7 @@
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="6" t="s">
         <v>295</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -9787,29 +9758,29 @@
       <c r="C147" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F147" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="G147" s="10" t="s">
+      <c r="G147" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H147" s="10"/>
-      <c r="I147" s="11">
+      <c r="H147" s="9"/>
+      <c r="I147" s="46">
         <v>45267</v>
       </c>
-      <c r="J147" s="11">
+      <c r="J147" s="46">
         <v>45808</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L147" s="7" t="s">
+      <c r="L147" s="6" t="s">
         <v>286</v>
       </c>
       <c r="M147" s="1" t="s">
@@ -9823,7 +9794,7 @@
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="6" t="s">
         <v>298</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -9832,29 +9803,29 @@
       <c r="C148" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F148" s="22" t="s">
+      <c r="F148" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="G148" s="10" t="s">
+      <c r="G148" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H148" s="10"/>
-      <c r="I148" s="11">
+      <c r="H148" s="9"/>
+      <c r="I148" s="46">
         <v>45098</v>
       </c>
-      <c r="J148" s="11">
+      <c r="J148" s="46">
         <v>45438</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L148" s="7" t="s">
+      <c r="L148" s="6" t="s">
         <v>286</v>
       </c>
       <c r="M148" s="1" t="s">
@@ -9868,7 +9839,7 @@
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="6" t="s">
         <v>300</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -9877,29 +9848,29 @@
       <c r="C149" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F149" s="22" t="s">
+      <c r="F149" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="G149" s="10" t="s">
+      <c r="G149" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H149" s="10"/>
-      <c r="I149" s="11">
+      <c r="H149" s="9"/>
+      <c r="I149" s="46">
         <v>45072</v>
       </c>
-      <c r="J149" s="11">
+      <c r="J149" s="46">
         <v>45438</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L149" s="7" t="s">
+      <c r="L149" s="6" t="s">
         <v>286</v>
       </c>
       <c r="M149" s="1" t="s">
@@ -9912,8 +9883,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="7" t="s">
+    <row r="150" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="6" t="s">
         <v>305</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -9922,29 +9893,29 @@
       <c r="C150" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F150" s="22" t="s">
+      <c r="F150" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="G150" s="10" t="s">
+      <c r="G150" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="H150" s="10"/>
-      <c r="I150" s="11">
+      <c r="H150" s="9"/>
+      <c r="I150" s="46">
         <v>45072</v>
       </c>
-      <c r="J150" s="11">
+      <c r="J150" s="46">
         <v>45438</v>
       </c>
       <c r="K150" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L150" s="7" t="s">
+      <c r="L150" s="6" t="s">
         <v>286</v>
       </c>
       <c r="M150" s="1" t="s">
@@ -9960,7 +9931,7 @@
       <c r="Q150"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="6" t="s">
         <v>309</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -9969,29 +9940,29 @@
       <c r="C151" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F151" s="22" t="s">
+      <c r="F151" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="G151" s="10" t="s">
+      <c r="G151" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="H151" s="10"/>
-      <c r="I151" s="11">
+      <c r="H151" s="9"/>
+      <c r="I151" s="46">
         <v>45072</v>
       </c>
-      <c r="J151" s="11">
+      <c r="J151" s="46">
         <v>45438</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L151" s="7" t="s">
+      <c r="L151" s="6" t="s">
         <v>286</v>
       </c>
       <c r="M151" s="1" t="s">
@@ -10005,7 +9976,7 @@
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -10014,7 +9985,7 @@
       <c r="C152" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -10027,10 +9998,10 @@
         <v>188</v>
       </c>
       <c r="H152" s="1"/>
-      <c r="I152" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J152" s="4" t="s">
+      <c r="I152" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K152" s="1" t="s">
@@ -10050,7 +10021,7 @@
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -10059,7 +10030,7 @@
       <c r="C153" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -10072,10 +10043,10 @@
         <v>188</v>
       </c>
       <c r="H153" s="1"/>
-      <c r="I153" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J153" s="4" t="s">
+      <c r="I153" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J153" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K153" s="1" t="s">
@@ -10095,54 +10066,54 @@
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="45" t="s">
+      <c r="A154" s="34" t="s">
         <v>681</v>
       </c>
-      <c r="B154" s="25" t="s">
+      <c r="B154" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="D154" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="E154" s="25" t="s">
+      <c r="E154" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="F154" s="26" t="s">
+      <c r="F154" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="G154" s="25" t="s">
+      <c r="G154" s="19" t="s">
         <v>686</v>
       </c>
-      <c r="H154" s="25"/>
-      <c r="I154" s="31">
+      <c r="H154" s="19"/>
+      <c r="I154" s="44">
         <v>45314</v>
       </c>
-      <c r="J154" s="31">
+      <c r="J154" s="44">
         <v>45314</v>
       </c>
-      <c r="K154" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L154" s="25"/>
-      <c r="M154" s="25" t="s">
+      <c r="K154" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19" t="s">
         <v>687</v>
       </c>
-      <c r="N154" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O154" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="P154" s="25" t="s">
+      <c r="N154" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O154" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P154" s="19" t="s">
         <v>688</v>
       </c>
-      <c r="Q154" s="27"/>
+      <c r="Q154" s="21"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>771</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -10151,7 +10122,7 @@
       <c r="C155" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="5" t="s">
         <v>683</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -10164,10 +10135,10 @@
         <v>686</v>
       </c>
       <c r="H155" s="1"/>
-      <c r="I155" s="4">
+      <c r="I155" s="42">
         <v>45324</v>
       </c>
-      <c r="J155" s="4">
+      <c r="J155" s="42">
         <v>45690</v>
       </c>
       <c r="K155" s="1"/>
@@ -10177,7 +10148,7 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="6" t="s">
         <v>758</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -10186,7 +10157,7 @@
       <c r="C156" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D156" s="5" t="s">
         <v>760</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -10199,8 +10170,6 @@
         <v>759</v>
       </c>
       <c r="H156" s="1"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -10231,16 +10200,16 @@
         <v>17</v>
       </c>
       <c r="H157" s="1"/>
-      <c r="I157" s="4">
+      <c r="I157" s="42">
         <v>45322</v>
       </c>
-      <c r="J157" s="4">
+      <c r="J157" s="42">
         <v>45688</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L157" s="5" t="s">
+      <c r="L157" s="4" t="s">
         <v>455</v>
       </c>
       <c r="M157" s="1" t="s">
@@ -10257,7 +10226,7 @@
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -10266,26 +10235,26 @@
       <c r="C158" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D158" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E158" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F158" s="20" t="s">
+      <c r="F158" s="15" t="s">
         <v>170</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H158" s="1"/>
-      <c r="I158" s="4">
+      <c r="I158" s="42">
         <v>44621</v>
       </c>
-      <c r="J158" s="4">
+      <c r="J158" s="42">
         <v>44986</v>
       </c>
-      <c r="K158" s="5" t="s">
+      <c r="K158" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L158" s="1" t="s">
@@ -10303,7 +10272,7 @@
       <c r="P158" s="2"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -10312,26 +10281,26 @@
       <c r="C159" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E159" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F159" s="20" t="s">
+      <c r="F159" s="15" t="s">
         <v>175</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H159" s="1"/>
-      <c r="I159" s="4">
+      <c r="I159" s="42">
         <v>44621</v>
       </c>
-      <c r="J159" s="4">
+      <c r="J159" s="42">
         <v>44986</v>
       </c>
-      <c r="K159" s="5" t="s">
+      <c r="K159" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L159" s="1" t="s">
@@ -10349,7 +10318,7 @@
       <c r="P159" s="2"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -10358,26 +10327,26 @@
       <c r="C160" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E160" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F160" s="20" t="s">
+      <c r="F160" s="15" t="s">
         <v>178</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H160" s="1"/>
-      <c r="I160" s="4">
+      <c r="I160" s="42">
         <v>44621</v>
       </c>
-      <c r="J160" s="4">
+      <c r="J160" s="42">
         <v>44986</v>
       </c>
-      <c r="K160" s="5" t="s">
+      <c r="K160" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L160" s="1" t="s">
@@ -10395,7 +10364,7 @@
       <c r="P160" s="2"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -10404,26 +10373,26 @@
       <c r="C161" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F161" s="20" t="s">
+      <c r="F161" s="15" t="s">
         <v>180</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H161" s="1"/>
-      <c r="I161" s="4">
+      <c r="I161" s="42">
         <v>44621</v>
       </c>
-      <c r="J161" s="4">
+      <c r="J161" s="42">
         <v>44986</v>
       </c>
-      <c r="K161" s="5" t="s">
+      <c r="K161" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L161" s="1" t="s">
@@ -10441,7 +10410,7 @@
       <c r="P161" s="2"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -10450,26 +10419,26 @@
       <c r="C162" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E162" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F162" s="20" t="s">
+      <c r="F162" s="15" t="s">
         <v>183</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>171</v>
       </c>
       <c r="H162" s="1"/>
-      <c r="I162" s="4">
+      <c r="I162" s="42">
         <v>44621</v>
       </c>
-      <c r="J162" s="4">
+      <c r="J162" s="42">
         <v>44986</v>
       </c>
-      <c r="K162" s="5" t="s">
+      <c r="K162" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L162" s="1" t="s">
@@ -10487,7 +10456,7 @@
       <c r="P162" s="2"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>264</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -10496,7 +10465,7 @@
       <c r="C163" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="5" t="s">
         <v>266</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -10509,10 +10478,10 @@
         <v>269</v>
       </c>
       <c r="H163" s="1"/>
-      <c r="I163" s="4">
+      <c r="I163" s="42">
         <v>45223</v>
       </c>
-      <c r="J163" s="4">
+      <c r="J163" s="42">
         <v>45589</v>
       </c>
       <c r="K163" s="1" t="s">
@@ -10535,7 +10504,7 @@
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -10544,7 +10513,7 @@
       <c r="C164" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="5" t="s">
         <v>206</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -10553,14 +10522,14 @@
       <c r="F164" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G164" s="9" t="s">
+      <c r="G164" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H164" s="9"/>
-      <c r="I164" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J164" s="4" t="s">
+      <c r="H164" s="8"/>
+      <c r="I164" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J164" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K164" s="1" t="s">
@@ -10580,7 +10549,7 @@
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -10589,7 +10558,7 @@
       <c r="C165" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="5" t="s">
         <v>235</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -10602,10 +10571,10 @@
         <v>238</v>
       </c>
       <c r="H165" s="1"/>
-      <c r="I165" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J165" s="4" t="s">
+      <c r="I165" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J165" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K165" s="1" t="s">
@@ -10625,32 +10594,32 @@
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="5">
         <v>3940</v>
       </c>
-      <c r="F166" s="20" t="s">
+      <c r="F166" s="15" t="s">
         <v>573</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>597</v>
       </c>
       <c r="H166" s="1"/>
-      <c r="I166" s="12">
+      <c r="I166" s="43">
         <v>45217</v>
       </c>
-      <c r="J166" s="12">
+      <c r="J166" s="43">
         <v>45596</v>
       </c>
       <c r="K166" s="1" t="s">
@@ -10670,32 +10639,32 @@
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="5">
         <v>3940</v>
       </c>
-      <c r="F167" s="20" t="s">
+      <c r="F167" s="15" t="s">
         <v>338</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>596</v>
       </c>
       <c r="H167" s="1"/>
-      <c r="I167" s="12">
+      <c r="I167" s="43">
         <v>45217</v>
       </c>
-      <c r="J167" s="12">
+      <c r="J167" s="43">
         <v>45596</v>
       </c>
       <c r="K167" s="1" t="s">
@@ -10715,79 +10684,79 @@
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="C168" s="29" t="s">
+      <c r="C168" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="D168" s="30" t="s">
+      <c r="D168" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="E168" s="30">
+      <c r="E168" s="24">
         <v>3940</v>
       </c>
-      <c r="F168" s="46" t="s">
+      <c r="F168" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="G168" s="25" t="s">
+      <c r="G168" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="H168" s="25"/>
+      <c r="H168" s="19"/>
       <c r="I168" s="47">
         <v>45041</v>
       </c>
       <c r="J168" s="47">
         <v>45412</v>
       </c>
-      <c r="K168" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L168" s="25" t="s">
+      <c r="K168" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L168" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="M168" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N168" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O168" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="P168" s="27"/>
-      <c r="Q168" s="27"/>
+      <c r="M168" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N168" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O168" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P168" s="21"/>
+      <c r="Q168" s="21"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E169" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="F169" s="20" t="s">
+      <c r="F169" s="15" t="s">
         <v>342</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>343</v>
       </c>
       <c r="H169" s="1"/>
-      <c r="I169" s="12">
+      <c r="I169" s="43">
         <v>45217</v>
       </c>
-      <c r="J169" s="12">
+      <c r="J169" s="43">
         <v>45596</v>
       </c>
       <c r="K169" s="1" t="s">
@@ -10806,80 +10775,80 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="41" t="s">
+    <row r="170" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="31" t="s">
         <v>613</v>
       </c>
-      <c r="B170" s="41" t="s">
+      <c r="B170" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="C170" s="35" t="s">
+      <c r="C170" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D170" s="41" t="s">
+      <c r="D170" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="E170" s="41" t="s">
+      <c r="E170" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="F170" s="42" t="s">
+      <c r="F170" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="G170" s="36" t="s">
+      <c r="G170" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="H170" s="36" t="s">
+      <c r="H170" s="28" t="s">
         <v>747</v>
       </c>
-      <c r="I170" s="44">
+      <c r="I170" s="48">
         <v>45289</v>
       </c>
-      <c r="J170" s="44">
+      <c r="J170" s="48">
         <v>45657</v>
       </c>
-      <c r="K170" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L170" s="36" t="s">
+      <c r="K170" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L170" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="M170" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N170" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O170" s="36" t="s">
+      <c r="M170" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N170" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O170" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B171" s="41" t="s">
+      <c r="B171" s="31" t="s">
         <v>618</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D171" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="5">
         <v>1545</v>
       </c>
-      <c r="F171" s="20">
+      <c r="F171" s="15">
         <v>42407002</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>347</v>
       </c>
       <c r="H171" s="1"/>
-      <c r="I171" s="12">
+      <c r="I171" s="43">
         <v>45217</v>
       </c>
-      <c r="J171" s="12">
+      <c r="J171" s="43">
         <v>45596</v>
       </c>
       <c r="K171" s="1" t="s">
@@ -10899,32 +10868,32 @@
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B172" s="41" t="s">
+      <c r="B172" s="31" t="s">
         <v>618</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D172" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E172" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="F172" s="20">
+      <c r="F172" s="15">
         <v>42656268</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H172" s="1"/>
-      <c r="I172" s="12">
+      <c r="I172" s="43">
         <v>45217</v>
       </c>
-      <c r="J172" s="12">
+      <c r="J172" s="43">
         <v>45596</v>
       </c>
       <c r="K172" s="1" t="s">
@@ -10944,32 +10913,32 @@
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B173" s="41" t="s">
+      <c r="B173" s="31" t="s">
         <v>618</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F173" s="20" t="s">
+      <c r="F173" s="15" t="s">
         <v>351</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>352</v>
       </c>
       <c r="H173" s="1"/>
-      <c r="I173" s="12">
+      <c r="I173" s="43">
         <v>45217</v>
       </c>
-      <c r="J173" s="12">
+      <c r="J173" s="43">
         <v>45596</v>
       </c>
       <c r="K173" s="1" t="s">
@@ -10988,144 +10957,144 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="41" t="s">
+    <row r="174" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="31" t="s">
         <v>617</v>
       </c>
-      <c r="B174" s="41" t="s">
+      <c r="B174" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="C174" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D174" s="41" t="s">
+      <c r="D174" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="E174" s="41" t="s">
+      <c r="E174" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="F174" s="42" t="s">
+      <c r="F174" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="G174" s="36" t="s">
+      <c r="G174" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="H174" s="36" t="s">
+      <c r="H174" s="28" t="s">
         <v>744</v>
       </c>
-      <c r="I174" s="44">
+      <c r="I174" s="48">
         <v>45264</v>
       </c>
-      <c r="J174" s="44">
+      <c r="J174" s="48">
         <v>45657</v>
       </c>
-      <c r="K174" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L174" s="36" t="s">
+      <c r="K174" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L174" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="M174" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N174" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O174" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="41" t="s">
+      <c r="M174" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N174" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O174" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="31" t="s">
         <v>602</v>
       </c>
-      <c r="B175" s="41" t="s">
+      <c r="B175" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="C175" s="35" t="s">
+      <c r="C175" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D175" s="41" t="s">
+      <c r="D175" s="31" t="s">
         <v>598</v>
       </c>
-      <c r="E175" s="41" t="s">
+      <c r="E175" s="31" t="s">
         <v>599</v>
       </c>
-      <c r="F175" s="42" t="s">
+      <c r="F175" s="32" t="s">
         <v>768</v>
       </c>
-      <c r="G175" s="36" t="s">
+      <c r="G175" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="H175" s="36"/>
-      <c r="I175" s="38">
+      <c r="H175" s="28"/>
+      <c r="I175" s="41">
         <v>45217</v>
       </c>
-      <c r="J175" s="38">
+      <c r="J175" s="41">
         <v>45596</v>
       </c>
-      <c r="K175" s="36" t="s">
+      <c r="K175" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="L175" s="36" t="s">
+      <c r="L175" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="M175" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N175" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O175" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P175" s="36" t="s">
+      <c r="M175" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N175" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O175" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P175" s="28" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="176" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="36" t="s">
+    <row r="176" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="B176" s="36" t="s">
+      <c r="B176" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="C176" s="35" t="s">
+      <c r="C176" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D176" s="36" t="s">
+      <c r="D176" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="E176" s="36" t="s">
+      <c r="E176" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="F176" s="37" t="s">
+      <c r="F176" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="G176" s="36" t="s">
+      <c r="G176" s="28" t="s">
         <v>743</v>
       </c>
-      <c r="H176" s="43" t="s">
+      <c r="H176" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="I176" s="36"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="36" t="s">
+      <c r="I176" s="41"/>
+      <c r="J176" s="41"/>
+      <c r="K176" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="L176" s="36" t="s">
+      <c r="L176" s="28" t="s">
         <v>629</v>
       </c>
-      <c r="M176" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N176" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O176" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P176" s="36" t="s">
+      <c r="M176" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N176" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O176" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P176" s="28" t="s">
         <v>584</v>
       </c>
     </row>
@@ -11171,56 +11140,56 @@
         <v>584</v>
       </c>
     </row>
-    <row r="178" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="36" t="s">
+    <row r="178" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="B178" s="36" t="s">
+      <c r="B178" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="C178" s="35" t="s">
+      <c r="C178" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D178" s="36" t="s">
+      <c r="D178" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="E178" s="36" t="s">
+      <c r="E178" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="F178" s="37" t="s">
+      <c r="F178" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="G178" s="36" t="s">
+      <c r="G178" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="H178" s="36" t="s">
+      <c r="H178" s="28" t="s">
         <v>805</v>
       </c>
-      <c r="I178" s="38">
+      <c r="I178" s="41">
         <v>45350</v>
       </c>
-      <c r="J178" s="38">
+      <c r="J178" s="41">
         <v>45626</v>
       </c>
-      <c r="K178" s="36" t="s">
+      <c r="K178" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="L178" s="36" t="s">
+      <c r="L178" s="28" t="s">
         <v>629</v>
       </c>
-      <c r="M178" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="N178" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O178" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="P178" s="36" t="s">
+      <c r="M178" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N178" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O178" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P178" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="Q178" s="39"/>
+      <c r="Q178" s="30"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
@@ -11349,7 +11318,7 @@
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -11358,7 +11327,7 @@
       <c r="C182" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D182" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E182" s="2" t="s">
@@ -11371,13 +11340,13 @@
         <v>410</v>
       </c>
       <c r="H182" s="1"/>
-      <c r="I182" s="4">
+      <c r="I182" s="42">
         <v>44726</v>
       </c>
-      <c r="J182" s="4">
+      <c r="J182" s="42">
         <v>45092</v>
       </c>
-      <c r="K182" s="5" t="s">
+      <c r="K182" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L182" s="1" t="s">
@@ -11398,7 +11367,7 @@
       <c r="Q182" s="2"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -11407,7 +11376,7 @@
       <c r="C183" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="5" t="s">
         <v>150</v>
       </c>
       <c r="E183" s="2" t="s">
@@ -11420,13 +11389,13 @@
         <v>410</v>
       </c>
       <c r="H183" s="1"/>
-      <c r="I183" s="4">
+      <c r="I183" s="42">
         <v>44726</v>
       </c>
-      <c r="J183" s="4">
+      <c r="J183" s="42">
         <v>45092</v>
       </c>
-      <c r="K183" s="5" t="s">
+      <c r="K183" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L183" s="1" t="s">
@@ -11446,7 +11415,7 @@
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -11455,7 +11424,7 @@
       <c r="C184" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D184" s="6" t="s">
+      <c r="D184" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E184" s="2" t="s">
@@ -11468,13 +11437,13 @@
         <v>410</v>
       </c>
       <c r="H184" s="1"/>
-      <c r="I184" s="4">
+      <c r="I184" s="42">
         <v>44726</v>
       </c>
-      <c r="J184" s="4">
+      <c r="J184" s="42">
         <v>45092</v>
       </c>
-      <c r="K184" s="5" t="s">
+      <c r="K184" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L184" s="1" t="s">
@@ -11494,7 +11463,7 @@
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -11503,7 +11472,7 @@
       <c r="C185" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -11516,13 +11485,13 @@
         <v>410</v>
       </c>
       <c r="H185" s="1"/>
-      <c r="I185" s="4">
+      <c r="I185" s="42">
         <v>44726</v>
       </c>
-      <c r="J185" s="4">
+      <c r="J185" s="42">
         <v>45092</v>
       </c>
-      <c r="K185" s="5" t="s">
+      <c r="K185" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L185" s="1" t="s">
@@ -11542,7 +11511,7 @@
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -11551,7 +11520,7 @@
       <c r="C186" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D186" s="6" t="s">
+      <c r="D186" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E186" s="2" t="s">
@@ -11564,13 +11533,13 @@
         <v>410</v>
       </c>
       <c r="H186" s="1"/>
-      <c r="I186" s="4">
+      <c r="I186" s="42">
         <v>44726</v>
       </c>
-      <c r="J186" s="4">
+      <c r="J186" s="42">
         <v>45092</v>
       </c>
-      <c r="K186" s="5" t="s">
+      <c r="K186" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L186" s="1" t="s">
@@ -11590,7 +11559,7 @@
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -11599,7 +11568,7 @@
       <c r="C187" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="5" t="s">
         <v>411</v>
       </c>
       <c r="E187" s="2" t="s">
@@ -11612,13 +11581,13 @@
         <v>410</v>
       </c>
       <c r="H187" s="1"/>
-      <c r="I187" s="4">
+      <c r="I187" s="42">
         <v>44726</v>
       </c>
-      <c r="J187" s="4">
+      <c r="J187" s="42">
         <v>45092</v>
       </c>
-      <c r="K187" s="5" t="s">
+      <c r="K187" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L187" s="1" t="s">
@@ -11638,7 +11607,7 @@
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -11647,7 +11616,7 @@
       <c r="C188" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D188" s="6" t="s">
+      <c r="D188" s="5" t="s">
         <v>127</v>
       </c>
       <c r="E188" s="2" t="s">
@@ -11660,13 +11629,13 @@
         <v>410</v>
       </c>
       <c r="H188" s="1"/>
-      <c r="I188" s="4">
+      <c r="I188" s="42">
         <v>44726</v>
       </c>
-      <c r="J188" s="4">
+      <c r="J188" s="42">
         <v>45092</v>
       </c>
-      <c r="K188" s="5" t="s">
+      <c r="K188" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L188" s="1" t="s">
@@ -11686,7 +11655,7 @@
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="7" t="s">
+      <c r="A189" s="6" t="s">
         <v>422</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -11695,7 +11664,7 @@
       <c r="C189" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D189" s="5" t="s">
         <v>412</v>
       </c>
       <c r="E189" s="2" t="s">
@@ -11708,13 +11677,13 @@
         <v>410</v>
       </c>
       <c r="H189" s="1"/>
-      <c r="I189" s="4">
+      <c r="I189" s="42">
         <v>44726</v>
       </c>
-      <c r="J189" s="4">
+      <c r="J189" s="42">
         <v>45092</v>
       </c>
-      <c r="K189" s="5" t="s">
+      <c r="K189" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L189" s="1" t="s">
@@ -11734,7 +11703,7 @@
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="6" t="s">
         <v>423</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -11743,26 +11712,26 @@
       <c r="C190" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D190" s="6" t="s">
+      <c r="D190" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E190" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F190" s="20" t="s">
+      <c r="F190" s="15" t="s">
         <v>118</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H190" s="1"/>
-      <c r="I190" s="4">
+      <c r="I190" s="42">
         <v>44351</v>
       </c>
-      <c r="J190" s="4">
+      <c r="J190" s="42">
         <v>44716</v>
       </c>
-      <c r="K190" s="5" t="s">
+      <c r="K190" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L190" s="1" t="s">
@@ -11782,7 +11751,7 @@
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="6" t="s">
         <v>423</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -11791,26 +11760,26 @@
       <c r="C191" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D191" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F191" s="20" t="s">
+      <c r="F191" s="15" t="s">
         <v>123</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H191" s="1"/>
-      <c r="I191" s="4">
+      <c r="I191" s="42">
         <v>44351</v>
       </c>
-      <c r="J191" s="4">
+      <c r="J191" s="42">
         <v>44716</v>
       </c>
-      <c r="K191" s="5" t="s">
+      <c r="K191" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L191" s="1" t="s">
@@ -11830,7 +11799,7 @@
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="6" t="s">
         <v>423</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -11839,26 +11808,26 @@
       <c r="C192" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="D192" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E192" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F192" s="20" t="s">
+      <c r="F192" s="15" t="s">
         <v>126</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H192" s="1"/>
-      <c r="I192" s="4">
+      <c r="I192" s="42">
         <v>44351</v>
       </c>
-      <c r="J192" s="4">
+      <c r="J192" s="42">
         <v>44716</v>
       </c>
-      <c r="K192" s="5" t="s">
+      <c r="K192" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L192" s="1" t="s">
@@ -11878,7 +11847,7 @@
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="7" t="s">
+      <c r="A193" s="6" t="s">
         <v>423</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -11887,26 +11856,26 @@
       <c r="C193" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D193" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E193" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F193" s="20" t="s">
+      <c r="F193" s="15" t="s">
         <v>129</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H193" s="1"/>
-      <c r="I193" s="4">
+      <c r="I193" s="42">
         <v>44351</v>
       </c>
-      <c r="J193" s="4">
+      <c r="J193" s="42">
         <v>44716</v>
       </c>
-      <c r="K193" s="5" t="s">
+      <c r="K193" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L193" s="1" t="s">
@@ -11926,7 +11895,7 @@
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="10" t="s">
+      <c r="A194" s="9" t="s">
         <v>423</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -11935,23 +11904,23 @@
       <c r="C194" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D194" s="6" t="s">
+      <c r="D194" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="E194" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F194" s="20" t="s">
+      <c r="F194" s="15" t="s">
         <v>118</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H194" s="1"/>
-      <c r="I194" s="4">
+      <c r="I194" s="42">
         <v>44740</v>
       </c>
-      <c r="J194" s="4">
+      <c r="J194" s="42">
         <v>44740</v>
       </c>
       <c r="K194" s="1" t="s">
@@ -11974,7 +11943,7 @@
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="9" t="s">
         <v>423</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -11983,23 +11952,23 @@
       <c r="C195" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D195" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="E195" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F195" s="20" t="s">
+      <c r="F195" s="15" t="s">
         <v>123</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H195" s="1"/>
-      <c r="I195" s="4">
+      <c r="I195" s="42">
         <v>44740</v>
       </c>
-      <c r="J195" s="4">
+      <c r="J195" s="42">
         <v>44740</v>
       </c>
       <c r="K195" s="1" t="s">
@@ -12022,7 +11991,7 @@
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="9" t="s">
         <v>423</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -12031,23 +12000,23 @@
       <c r="C196" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D196" s="6" t="s">
+      <c r="D196" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="E196" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F196" s="20" t="s">
+      <c r="F196" s="15" t="s">
         <v>126</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H196" s="1"/>
-      <c r="I196" s="4">
+      <c r="I196" s="42">
         <v>44740</v>
       </c>
-      <c r="J196" s="4">
+      <c r="J196" s="42">
         <v>44740</v>
       </c>
       <c r="K196" s="1" t="s">
@@ -12070,7 +12039,7 @@
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="9" t="s">
         <v>423</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -12079,23 +12048,23 @@
       <c r="C197" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="E197" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="F197" s="15" t="s">
         <v>129</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H197" s="1"/>
-      <c r="I197" s="4">
+      <c r="I197" s="42">
         <v>44740</v>
       </c>
-      <c r="J197" s="4">
+      <c r="J197" s="42">
         <v>44740</v>
       </c>
       <c r="K197" s="1" t="s">
@@ -12140,16 +12109,16 @@
         <v>54</v>
       </c>
       <c r="H198" s="1"/>
-      <c r="I198" s="4">
+      <c r="I198" s="42">
         <v>45219</v>
       </c>
-      <c r="J198" s="4">
+      <c r="J198" s="42">
         <v>45585</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L198" s="5"/>
+      <c r="L198" s="4"/>
       <c r="M198" s="1" t="s">
         <v>18</v>
       </c>
@@ -12186,16 +12155,16 @@
         <v>54</v>
       </c>
       <c r="H199" s="1"/>
-      <c r="I199" s="4">
+      <c r="I199" s="42">
         <v>45219</v>
       </c>
-      <c r="J199" s="4">
+      <c r="J199" s="42">
         <v>45585</v>
       </c>
-      <c r="K199" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L199" s="5"/>
+      <c r="K199" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L199" s="4"/>
       <c r="M199" s="1" t="s">
         <v>18</v>
       </c>
@@ -12232,16 +12201,16 @@
         <v>60</v>
       </c>
       <c r="H200" s="1"/>
-      <c r="I200" s="4">
+      <c r="I200" s="42">
         <v>44435</v>
       </c>
-      <c r="J200" s="4">
+      <c r="J200" s="42">
         <v>44800</v>
       </c>
-      <c r="K200" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L200" s="5"/>
+      <c r="K200" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L200" s="4"/>
       <c r="M200" s="1" t="s">
         <v>18</v>
       </c>
@@ -12278,14 +12247,13 @@
         <v>60</v>
       </c>
       <c r="H201" s="1"/>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4">
+      <c r="J201" s="42">
         <v>45092</v>
       </c>
-      <c r="K201" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L201" s="5"/>
+      <c r="K201" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L201" s="4"/>
       <c r="M201" s="1" t="s">
         <v>18</v>
       </c>
@@ -12322,16 +12290,16 @@
         <v>658</v>
       </c>
       <c r="H202" s="1"/>
-      <c r="I202" s="4">
+      <c r="I202" s="42">
         <v>45132</v>
       </c>
-      <c r="J202" s="4">
+      <c r="J202" s="42">
         <v>45498</v>
       </c>
-      <c r="K202" s="5" t="s">
+      <c r="K202" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="L202" s="5"/>
+      <c r="L202" s="4"/>
       <c r="M202" s="1" t="s">
         <v>18</v>
       </c>
@@ -12368,14 +12336,14 @@
         <v>781</v>
       </c>
       <c r="H203" s="1"/>
-      <c r="I203" s="4">
+      <c r="I203" s="42">
         <v>45041</v>
       </c>
-      <c r="J203" s="4">
+      <c r="J203" s="42">
         <v>45772</v>
       </c>
-      <c r="K203" s="5"/>
-      <c r="L203" s="5"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
@@ -12404,14 +12372,13 @@
         <v>90</v>
       </c>
       <c r="H204" s="1"/>
-      <c r="I204" s="4"/>
-      <c r="J204" s="4">
+      <c r="J204" s="42">
         <v>45095</v>
       </c>
-      <c r="K204" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L204" s="5"/>
+      <c r="K204" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L204" s="4"/>
       <c r="M204" s="1" t="s">
         <v>18</v>
       </c>
@@ -12448,16 +12415,16 @@
         <v>662</v>
       </c>
       <c r="H205" s="1"/>
-      <c r="I205" s="4">
+      <c r="I205" s="42">
         <v>44593</v>
       </c>
-      <c r="J205" s="4">
+      <c r="J205" s="42">
         <v>45323</v>
       </c>
-      <c r="K205" s="5" t="s">
+      <c r="K205" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="L205" s="5"/>
+      <c r="L205" s="4"/>
       <c r="M205" s="1" t="s">
         <v>18</v>
       </c>
@@ -12494,14 +12461,13 @@
         <v>94</v>
       </c>
       <c r="H206" s="1"/>
-      <c r="I206" s="4"/>
-      <c r="J206" s="4">
+      <c r="J206" s="42">
         <v>44845</v>
       </c>
-      <c r="K206" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L206" s="5"/>
+      <c r="K206" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L206" s="4"/>
       <c r="M206" s="1" t="s">
         <v>18</v>
       </c>
@@ -12538,16 +12504,16 @@
         <v>50</v>
       </c>
       <c r="H207" s="1"/>
-      <c r="I207" s="4">
+      <c r="I207" s="42">
         <v>45223</v>
       </c>
-      <c r="J207" s="4">
+      <c r="J207" s="42">
         <v>45589</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L207" s="5"/>
+      <c r="L207" s="4"/>
       <c r="M207" s="1" t="s">
         <v>18</v>
       </c>
@@ -12568,23 +12534,23 @@
       <c r="C208" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D208" s="5" t="s">
         <v>402</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F208" s="21" t="s">
+      <c r="F208" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="G208" s="6" t="s">
+      <c r="G208" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="H208" s="6"/>
-      <c r="I208" s="4">
+      <c r="H208" s="5"/>
+      <c r="I208" s="42">
         <v>44512</v>
       </c>
-      <c r="J208" s="4">
+      <c r="J208" s="42">
         <v>44877</v>
       </c>
       <c r="K208" s="1" t="s">
@@ -12624,16 +12590,16 @@
         <v>81</v>
       </c>
       <c r="H209" s="1"/>
-      <c r="I209" s="4">
+      <c r="I209" s="42">
         <v>44593</v>
       </c>
-      <c r="J209" s="4">
+      <c r="J209" s="42">
         <v>44985</v>
       </c>
-      <c r="K209" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L209" s="5"/>
+      <c r="K209" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L209" s="4"/>
       <c r="M209" s="1" t="s">
         <v>18</v>
       </c>
@@ -12667,10 +12633,10 @@
         <v>601</v>
       </c>
       <c r="H210" s="1"/>
-      <c r="I210" s="4">
+      <c r="I210" s="42">
         <v>44602</v>
       </c>
-      <c r="J210" s="4">
+      <c r="J210" s="42">
         <v>44985</v>
       </c>
       <c r="K210" s="1" t="s">
@@ -12701,7 +12667,7 @@
       <c r="D211" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E211" s="9" t="s">
+      <c r="E211" s="8" t="s">
         <v>442</v>
       </c>
       <c r="F211" s="3" t="s">
@@ -12711,10 +12677,10 @@
         <v>436</v>
       </c>
       <c r="H211" s="1"/>
-      <c r="I211" s="4">
+      <c r="I211" s="42">
         <v>44771</v>
       </c>
-      <c r="J211" s="4">
+      <c r="J211" s="42">
         <v>45136</v>
       </c>
       <c r="K211" s="1" t="s">
@@ -12741,7 +12707,7 @@
       <c r="C212" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D212" s="6" t="s">
+      <c r="D212" s="5" t="s">
         <v>402</v>
       </c>
       <c r="E212" s="2" t="s">
@@ -12750,14 +12716,14 @@
       <c r="F212" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="G212" s="6" t="s">
+      <c r="G212" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H212" s="6"/>
-      <c r="I212" s="4">
+      <c r="H212" s="5"/>
+      <c r="I212" s="42">
         <v>44880</v>
       </c>
-      <c r="J212" s="4">
+      <c r="J212" s="42">
         <v>45245</v>
       </c>
       <c r="K212" s="1" t="s">
@@ -12786,7 +12752,7 @@
       <c r="C213" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D213" s="6" t="s">
+      <c r="D213" s="5" t="s">
         <v>397</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -12795,14 +12761,14 @@
       <c r="F213" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="G213" s="6" t="s">
+      <c r="G213" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H213" s="6"/>
-      <c r="I213" s="4">
+      <c r="H213" s="5"/>
+      <c r="I213" s="42">
         <v>45120</v>
       </c>
-      <c r="J213" s="4">
+      <c r="J213" s="42">
         <v>45486</v>
       </c>
       <c r="K213" s="1" t="s">
@@ -12828,7 +12794,7 @@
       <c r="C214" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D214" s="6" t="s">
+      <c r="D214" s="5" t="s">
         <v>397</v>
       </c>
       <c r="E214" s="2" t="s">
@@ -12837,14 +12803,14 @@
       <c r="F214" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="G214" s="6" t="s">
+      <c r="G214" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H214" s="6"/>
-      <c r="I214" s="4">
+      <c r="H214" s="5"/>
+      <c r="I214" s="42">
         <v>45222</v>
       </c>
-      <c r="J214" s="4">
+      <c r="J214" s="42">
         <v>45588</v>
       </c>
       <c r="K214" s="1" t="s">
@@ -12874,7 +12840,7 @@
       <c r="C215" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D215" s="6" t="s">
+      <c r="D215" s="5" t="s">
         <v>397</v>
       </c>
       <c r="E215" s="2" t="s">
@@ -12883,14 +12849,14 @@
       <c r="F215" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="G215" s="6" t="s">
+      <c r="G215" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H215" s="6"/>
-      <c r="I215" s="4">
+      <c r="H215" s="5"/>
+      <c r="I215" s="42">
         <v>45245</v>
       </c>
-      <c r="J215" s="4">
+      <c r="J215" s="42">
         <v>45611</v>
       </c>
       <c r="K215" s="1" t="s">
@@ -12912,7 +12878,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="216" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1"/>
       <c r="B216" s="2" t="s">
         <v>26</v>
@@ -12933,8 +12899,8 @@
         <v>82</v>
       </c>
       <c r="H216" s="1"/>
-      <c r="I216" s="4"/>
-      <c r="J216" s="4" t="s">
+      <c r="I216" s="42"/>
+      <c r="J216" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K216" s="1"/>
@@ -12954,7 +12920,7 @@
       <c r="Q216"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" s="8"/>
+      <c r="A217" s="7"/>
       <c r="B217" s="2" t="s">
         <v>13</v>
       </c>
@@ -12969,8 +12935,6 @@
         <v>196</v>
       </c>
       <c r="H217" s="1"/>
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
@@ -12985,9 +12949,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5"/>
-      <c r="K218" s="5"/>
+      <c r="K218" s="4"/>
       <c r="L218" s="1"/>
     </row>
   </sheetData>
@@ -13021,33 +12983,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="13" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="51">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13069,12 +13031,12 @@
         <v>458</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="36" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="51">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -13096,12 +13058,12 @@
         <v>78</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="36" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="51">
+      <c r="A5" s="39">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -13123,21 +13085,21 @@
         <v>662</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="37" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="51">
+      <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>758</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>760</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -13149,12 +13111,12 @@
       <c r="G6" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="38" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="51">
+      <c r="A7" s="39">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -13178,21 +13140,21 @@
       <c r="H7" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="36" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="51">
+      <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>813</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -13207,12 +13169,12 @@
       <c r="H8" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="36" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="51">
+      <c r="A9" s="39">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -13233,12 +13195,12 @@
       <c r="G9" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="36" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="51">
+      <c r="A10" s="39">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -13259,12 +13221,12 @@
       <c r="G10" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="36" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="51">
+      <c r="A11" s="39">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -13285,21 +13247,21 @@
       <c r="G11" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="36" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="51">
+      <c r="A12" s="39">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>826</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>677</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -13314,12 +13276,12 @@
       <c r="H12" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="38" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="51">
+      <c r="A13" s="39">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -13340,21 +13302,21 @@
       <c r="G13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="36" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="51">
+      <c r="A14" s="39">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>838</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>702</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -13369,33 +13331,33 @@
       <c r="H14" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="38" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="s">

--- a/Equipment_and_Metrology_Database.xlsx
+++ b/Equipment_and_Metrology_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d31bab4223d41d12/Desktop/Latitude Work Folder/Equipment and Metrology Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{999A0059-E710-4F1A-B0D9-0DD7BDFE7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E379F6B-D0D3-4278-B95C-EE135FB1A2A7}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{999A0059-E710-4F1A-B0D9-0DD7BDFE7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782C699F-F46B-4C14-95FD-8354635C8C03}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{29ED6C3E-AE6D-483B-89E1-38F18DA3C654}"/>
+    <workbookView xWindow="834" yWindow="678" windowWidth="21600" windowHeight="10920" xr2:uid="{29ED6C3E-AE6D-483B-89E1-38F18DA3C654}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTIVE" sheetId="1" r:id="rId1"/>
@@ -2690,7 +2690,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2951,31 +2951,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3311,7 +3311,7 @@
   <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Equipment_and_Metrology_Database.xlsx
+++ b/Equipment_and_Metrology_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d31bab4223d41d12/Desktop/Latitude Work Folder/Equipment and Metrology Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{999A0059-E710-4F1A-B0D9-0DD7BDFE7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782C699F-F46B-4C14-95FD-8354635C8C03}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{999A0059-E710-4F1A-B0D9-0DD7BDFE7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56AF412A-F585-4112-A154-649B7EBED28C}"/>
   <bookViews>
-    <workbookView xWindow="834" yWindow="678" windowWidth="21600" windowHeight="10920" xr2:uid="{29ED6C3E-AE6D-483B-89E1-38F18DA3C654}"/>
+    <workbookView xWindow="1362" yWindow="1122" windowWidth="21600" windowHeight="10920" xr2:uid="{29ED6C3E-AE6D-483B-89E1-38F18DA3C654}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTIVE" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="845">
   <si>
     <t>ID #</t>
   </si>
@@ -2682,6 +2682,15 @@
   </si>
   <si>
     <t>Cal_Due_Date</t>
+  </si>
+  <si>
+    <t>ID_No</t>
+  </si>
+  <si>
+    <t>Model_No</t>
+  </si>
+  <si>
+    <t>Serial_No</t>
   </si>
 </sst>
 </file>
@@ -3310,8 +3319,8 @@
   </sheetPr>
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3335,7 +3344,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -3347,10 +3356,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>4</v>
+        <v>843</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>5</v>
+        <v>844</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>6</v>
